--- a/backend/database/PostgreSQL-departments.xlsx
+++ b/backend/database/PostgreSQL-departments.xlsx
@@ -2662,10 +2662,13 @@
       <sheetName val="insert-assets"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
+          <cell r="A1" t="str">
+            <v>CREATE TABLE</v>
+          </cell>
           <cell r="B1" t="str">
             <v>assets</v>
           </cell>
@@ -2679,7 +2682,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INSERT INTO assets VALUES ('CASF-000-000', 'CASF-000-000', 'Complexo Arquitetônico - Todos', 'Descrição do ativo', 'F', 0, 0, 0, 'Fabricante', '0', '0', '0', 'Garantia');</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
